--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Pedro José Nahuelquin Caipillan</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
+          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Norma del Carmen Hueicha Hueicha</t>
+          <t>Pedro José Nahuelquin Caipillan</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>Norma del Carmen Hueicha Hueicha</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
+          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Cristhian Marcelo Espinoza Cardenas</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Cristhian Marcelo Espinoza Cardenas</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
+          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Pedro José Nahuelquin Caipillan</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
+          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Pedro José Nahuelquin Caipillan</t>
+          <t>Norma del Carmen Hueicha Hueicha</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Norma del Carmen Hueicha Hueicha</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Cristhian Marcelo Espinoza Cardenas</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
+          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Cristhian Marcelo Espinoza Cardenas</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
+          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F33" t="n">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Mario Alberto Hernández Pinto</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Pedro José Nahuelquin Caipillan</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
+          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Pedro José Nahuelquin Caipillan</t>
+          <t>Norma del Carmen Hueicha Hueicha</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
+          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Norma del Carmen Hueicha Hueicha</t>
+          <t>Mario Alberto Hernández Pinto</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
+          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juan Aldino Millatureo Diaz</t>
+          <t>Francisco Enrique Bilbao Godoy</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
+          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Javier Robinson Lillo Almoacid</t>
+          <t>Gerardo Patricio Bello Carcamo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
+          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Gerardo Patricio Bello Carcamo</t>
+          <t>Juan Aldino Millatureo Diaz</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
+          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Francisco Enrique Bilbao Godoy</t>
+          <t>Javier Robinson Lillo Almoacid</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Cristhian Marcelo Espinoza Cardenas</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
+          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Cristhian Marcelo Espinoza Cardenas</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
+          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>Mario Alberto Hernández Pinto</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Pedro José Nahuelquin Caipillan</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
+          <t>Cultivo de Gracilaria Punta Alqui N°97103099</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Norma del Carmen Hueicha Hueicha</t>
+          <t>Pedro José Nahuelquin Caipillan</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
+          <t>Cultivos de Mytílidos Punta Mechai II N°97103089</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Mario Alberto Hernández Pinto</t>
+          <t>Norma del Carmen Hueicha Hueicha</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
+          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Francisco Enrique Bilbao Godoy</t>
+          <t>Juan Aldino Millatureo Diaz</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
+          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gerardo Patricio Bello Carcamo</t>
+          <t>Javier Robinson Lillo Almoacid</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
+          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Juan Aldino Millatureo Diaz</t>
+          <t>Gerardo Patricio Bello Carcamo</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
+          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Javier Robinson Lillo Almoacid</t>
+          <t>Francisco Enrique Bilbao Godoy</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
+          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Cristhian Marcelo Espinoza Cardenas</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Punta Mechai N° Solicitud 99103095</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 1 PERT N° 98103037</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Cristhian Marcelo Espinoza Cardenas</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Producción de Ostras a Partir del Estado de Semilla (Solicitud N° 99103104)</t>
+          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noreste Punta Centinela Isla Tranqui Queilen Pert N° 98103017</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmonídeos Aituy Queilén (Sol. N°99103055)</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Mario Alberto Hernández Pinto</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Mario Alberto Hernández Pinto</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
+          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juan Aldino Millatureo Diaz</t>
+          <t>Francisco Enrique Bilbao Godoy</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
+          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Javier Robinson Lillo Almoacid</t>
+          <t>Gerardo Patricio Bello Carcamo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
+          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Gerardo Patricio Bello Carcamo</t>
+          <t>Juan Aldino Millatureo Diaz</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
+          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Francisco Enrique Bilbao Godoy</t>
+          <t>Javier Robinson Lillo Almoacid</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Mario Alberto Hernández Pinto</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Mario Alberto Hernández Pinto</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
+          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Francisco Enrique Bilbao Godoy</t>
+          <t>Juan Aldino Millatureo Diaz</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
+          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gerardo Patricio Bello Carcamo</t>
+          <t>Javier Robinson Lillo Almoacid</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
+          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Juan Aldino Millatureo Diaz</t>
+          <t>Gerardo Patricio Bello Carcamo</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
+          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Javier Robinson Lillo Almoacid</t>
+          <t>Francisco Enrique Bilbao Godoy</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Carlos Heriberto Gómez Miranda</t>
+          <t>SOCIEDAD COMERCIAL ALTO MURO LIMITADA</t>
         </is>
       </c>
       <c r="F142" t="n">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Acuícola Milla Chaywa SPA</t>
+          <t>CULTIVOS NEWEN SUPER SMOLT SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Chauco</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Quechu.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5165433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
+          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>José Ariel Mansilla Pérez</t>
+          <t>Mario Alberto Hernández Pinto</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
+          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivos de Mytilidos Detico N°99103100</t>
+          <t>Cultivo de Mytílidos Río Gamboa II N°97103238</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Gastón Enrique Piñeiro Mella</t>
+          <t>José Ariel Mansilla Pérez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
+          <t>Cultivo de Mytilidos Río Mechai N°97103075</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Hector Arnaldo Mella Andrade</t>
+          <t>Salvador Roque Piñeiro Mella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualin II</t>
+          <t>Cultivos de Mytilidos Detico N°99103100</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Patricio Alejandro Piñeiro Mella</t>
+          <t>Gastón Enrique Piñeiro Mella</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
+          <t>Cultivo de Mytilidos Ensenada Detico II (Solicitud N°200103080)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Comunidad Mapuche Neculpan de Alqui</t>
+          <t>Hector Arnaldo Mella Andrade</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
+          <t>Cultivo de Mitylidos Islote Chagualin II</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>María Eugenia Muñoz Vargas</t>
+          <t>Patricio Alejandro Piñeiro Mella</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui II N°97103101</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivo de Mitylidos Islote Chagualín (Solicitud N°99103174)</t>
+          <t>Cultivo de Mitilidos Punta Mechai Comuna de Queilen Provincia de Chiloe X Region N°99103210</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Salvador Roque Piñeiro Mella</t>
+          <t>María Eugenia Muñoz Vargas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Detico (Solicitud N°99103090)</t>
+          <t>Cultivo de Gracilaria Ensenada Alqui Nº97103100</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Mario Alberto Hernández Pinto</t>
+          <t>Comunidad Mapuche Neculpan de Alqui</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
+          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Francisco Enrique Bilbao Godoy</t>
+          <t>Juan Aldino Millatureo Diaz</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
+          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gerardo Patricio Bello Carcamo</t>
+          <t>Javier Robinson Lillo Almoacid</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Punta Quechu Solicitud N°97103234</t>
+          <t>Cultivo de Mitílidos Estero Paildad (Solicitud 99103213)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Juan Aldino Millatureo Diaz</t>
+          <t>Gerardo Patricio Bello Carcamo</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivo de Mytílidos Ralún N° Pert 99103269</t>
+          <t>Cultivo de Mitilidos Ensenada Quechu II Solicitud N°99103160</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Javier Robinson Lillo Almoacid</t>
+          <t>Francisco Enrique Bilbao Godoy</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
+          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
+          <t>Centro de Crecimiento de Salmones Sureste Punta Centinela Isla Tranqui Quilén Solicitud N° 98103018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Estero Paildad Queilen Solicitud N° 99103050</t>
+          <t>Centro de Engorda de Mytilidos a Partir del Estado de Semilla Sector 2 PERT N° 99103103</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">

--- a/data/Queilén.xlsx
+++ b/data/Queilén.xlsx
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ISMAEL JESUS ARANGUIZ TORO</t>
+          <t>ARTURO GEOVANI ALVARADO NEUMANN</t>
         </is>
       </c>
       <c r="F66" t="n">
